--- a/etonnement/etonnement.xlsx
+++ b/etonnement/etonnement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.calendreau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelc\Desktop\CESI-cer\etonnement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A838371-4058-4494-BD3F-3BFBF85BA734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE014E4-F0A9-4D45-830A-E3AD607F47C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1560" windowWidth="21840" windowHeight="13740" xr2:uid="{12397CB5-C368-467E-A38C-35BBEED24BC2}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{12397CB5-C368-467E-A38C-35BBEED24BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,6 @@
     <t>Forces</t>
   </si>
   <si>
-    <t>Diversité:</t>
-  </si>
-  <si>
-    <t>civil,militaire</t>
-  </si>
-  <si>
     <t>formation internes a l'armée</t>
   </si>
   <si>
@@ -90,13 +84,19 @@
   </si>
   <si>
     <t>Impact mondiale</t>
+  </si>
+  <si>
+    <t>Diversité: civil,militaire</t>
+  </si>
+  <si>
+    <t>Localisation/effet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -283,68 +319,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,11 +369,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,197 +761,200 @@
   <sheetData>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
       <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
-      <c r="C18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C13:D14"/>
+  <mergeCells count="18">
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C6:D9"/>
+    <mergeCell ref="E6:F9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
@@ -902,11 +962,12 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C6:D9"/>
-    <mergeCell ref="E6:F9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>